--- a/biology/Biochimie/Classification_des_lipides/Classification_des_lipides.xlsx
+++ b/biology/Biochimie/Classification_des_lipides/Classification_des_lipides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,19 +490,21 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les lipides constituent la matière grasse des êtres vivants. Ce sont de petites molécules hydrophobes ou amphipathiques principalement constituées de carbone, d’hydrogène et d’oxygène avec une densité inférieure à l'eau[1]. Les lipides peuvent être à l'état solide, comme dans les graisses, ou liquide, comme dans les huiles. Les lipides proviennent en totalité ou en partie de condensations de thioesters basées sur des carbanions et/ou de condensations d'unités isoprène basées sur des carbocations[2].
-Les lipides peuvent être classés selon la structure de leur squelette carboné (atomes de carbone chaînés, cycliques, présence d'insaturations, etc). Toutefois, du fait de leur diversité et de la difficulté à adopter une définition universelle, il n'existe pas de classification unique des lipides. L'UICPA[3], par exemple, inclut dans les lipides les acides gras et dérivés, ainsi que leurs esters[4]:
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les lipides constituent la matière grasse des êtres vivants. Ce sont de petites molécules hydrophobes ou amphipathiques principalement constituées de carbone, d’hydrogène et d’oxygène avec une densité inférieure à l'eau. Les lipides peuvent être à l'état solide, comme dans les graisses, ou liquide, comme dans les huiles. Les lipides proviennent en totalité ou en partie de condensations de thioesters basées sur des carbanions et/ou de condensations d'unités isoprène basées sur des carbocations.
+Les lipides peuvent être classés selon la structure de leur squelette carboné (atomes de carbone chaînés, cycliques, présence d'insaturations, etc). Toutefois, du fait de leur diversité et de la difficulté à adopter une définition universelle, il n'existe pas de classification unique des lipides. L'UICPA, par exemple, inclut dans les lipides les acides gras et dérivés, ainsi que leurs esters:
 les acides gras
 les glycérides
 les phospholipides (essentiellement les phosphoglycérides et les sphingolipides)
 et les glycolipides
-La catégorie des lipides définie par l'UICPA n'inclut donc pas le cholestérol, classé dans les terpénoïdes[5], soit:
+La catégorie des lipides définie par l'UICPA n'inclut donc pas le cholestérol, classé dans les terpénoïdes, soit:
 les stéroïdes (dont le cholestérol)
 les terpènes
 les rétinoïdes
-Or, les composés tel que le cholestérol sont effectivement considérés comme des lipides depuis longtemps[6], y compris dans la définition faite par l'UICPA. Différentes études ont donc été faites pour intégrer les lipides de type acide gras et de type cholestérol dans un même système de classification. La dernière en date définit 5 catégories[2] et dérive en partie de la classification faite par l'UICPA: 
+Or, les composés tel que le cholestérol sont effectivement considérés comme des lipides depuis longtemps, y compris dans la définition faite par l'UICPA. Différentes études ont donc été faites pour intégrer les lipides de type acide gras et de type cholestérol dans un même système de classification. La dernière en date définit 5 catégories et dérive en partie de la classification faite par l'UICPA: 
 les polykétides
 les acylglycérols
 les sphingolipides
@@ -527,11 +539,48 @@
           <t>Classe des acides gras</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les acides gras sont des acides carboxyliques caractérisés par une répétition de groupements méthylènes -CH2- formant une longue chaîne carbonée généralement constituée d'un nombre pair d'atomes de carbone. C'est cette chaîne carbonée qui confère leur caractère hydrophobe aux acides gras. La structure des acides gras représente sans doute l'élément le plus utilisé dans les autres classes de lipides. La classe des acides gras peut se diviser en 13 sous-classes:
-Sous-classe des acides gras et dérivés
-acides gras à chaîne droite : acides gras saturés de formule semi-développée
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les acides gras sont des acides carboxyliques caractérisés par une répétition de groupements méthylènes -CH2- formant une longue chaîne carbonée généralement constituée d'un nombre pair d'atomes de carbone. C'est cette chaîne carbonée qui confère leur caractère hydrophobe aux acides gras. La structure des acides gras représente sans doute l'élément le plus utilisé dans les autres classes de lipides. La classe des acides gras peut se diviser en 13 sous-classes:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-classe des acides gras et dérivés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>acides gras à chaîne droite : acides gras saturés de formule semi-développée
 CH3-[CH2]n-COOH avec n ≥ 2.
 acides gras méthylés : acides gras possédant un ou plusieurs groupes méthyl -CH3 le long de leur chaîne carbonée (ex. acide isolaurique).
  acides gras insaturés : possédant une ou plusieurs doubles liaisons -C=C- le long de leur chaîne carbonée.
@@ -548,13 +597,81 @@
 acides gras carbocycliques : acides gras possédant un ou plusieurs cycles carbonés le long de leur chaîne carbonée. En général, les carbocycles se composent de 5 ou 6 carbones.
 acides gras hétérocycliques : acides gras possédant un ou plusieurs hétérocycles le long de leur chaîne carbonée. En général, les cycles se composent de 5 ou 6 atomes.
 acides mycoliques
-acides dicarboxyliques : acides gras possédant un groupe carboxyle -COOH à chaque extrémité de leur chaîne carbonée.
-Sous-classe des octadécanoïdes
-Les octadécanoïdes sont dérivés d'acides gras à 18 atomes de carbone.
+acides dicarboxyliques : acides gras possédant un groupe carboxyle -COOH à chaque extrémité de leur chaîne carbonée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-classe des octadécanoïdes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les octadécanoïdes sont dérivés d'acides gras à 18 atomes de carbone.
 métabolites dérivés de l'acide 12-oxophytodiénoïque
-acide jasmonique
-Sous-classe des eicosanoïdes
-Les eicosanoïdes sont formés à partir de l'acide 5Z,8Z,11Z,14Z-eicosatétraénoïque, plus communément appelé acide arachidonique. Cet acide possède 20 atomes de carbone et 4 insaturations.
+acide jasmonique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-classe des eicosanoïdes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les eicosanoïdes sont formés à partir de l'acide 5Z,8Z,11Z,14Z-eicosatétraénoïque, plus communément appelé acide arachidonique. Cet acide possède 20 atomes de carbone et 4 insaturations.
 prostaglandines ;
 leucotriènes ;
 thromboxanes ;
@@ -565,16 +682,155 @@
 acides époxyeicosatriénoïques ;
 hépoxilines ;
 levuglandines ;
-isoprostanes, pour lesquelles une nomenclature a été produite en 1997[7],[8] ;
-clavulones et analogues marins.
-Sous-classe des docosanoïdes
-Les docosanoïdes dérivent de l'acide docosahexaénoïque et possèdent 22 atomes de carbone et un carbocyle insaturé.
-Sous-classe des alcools gras
-Les alcools gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par un groupement hydroxyle -OH.
-Sous-classe des aldéhydes gras
-Les aldéhydes gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par un groupement aldéhyde -CH=O.
-Sous-classe des esters gras
-Les esters gras sont formés par estérification du groupement carboxyle -COOH d'un acide gras avec un composé hydroxylé.
+isoprostanes, pour lesquelles une nomenclature a été produite en 1997, ;
+clavulones et analogues marins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-classe des docosanoïdes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les docosanoïdes dérivent de l'acide docosahexaénoïque et possèdent 22 atomes de carbone et un carbocyle insaturé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-classe des alcools gras</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les alcools gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par un groupement hydroxyle -OH.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sous-classe des aldéhydes gras</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les aldéhydes gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par un groupement aldéhyde -CH=O.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sous-classe des esters gras</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les esters gras sont formés par estérification du groupement carboxyle -COOH d'un acide gras avec un composé hydroxylé.
 monoesters de cire
 diesters de cire
 cyano esters
@@ -582,49 +838,188 @@
 acyl Coenzyme A
 acyl ACP
 acylcarnitines
-acyladénylates
-Sous-classe des amides gras
-Les amides gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par un groupement amide -CONH2.
+acyladénylates</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sous-classe des amides gras</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les amides gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par un groupement amide -CONH2.
 amides primaires
 N-acylamides
 acylhomoserine lactones
-N-acylethanolamides (endocannabinoïdes)
-Sous-classe des nitriles gras
-Les nitriles gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par un groupement nitrile -C≡N.
-Sous-classe des éthers gras
-Les éthers gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par une fonction éther -C-O-R.
-Sous-classe des hydrocarbures gras
-Les hydrocarbures gras sont des acides gras dont le groupement carboxyle -COOH a été perdu.
-Sous-classe des hydrocarbures oxygénés
-Autres</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+N-acylethanolamides (endocannabinoïdes)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sous-classe des nitriles gras</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nitriles gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par un groupement nitrile -C≡N.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sous-classe des éthers gras</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les éthers gras sont des acides gras dont le groupement carboxyle -COOH a été substitué par une fonction éther -C-O-R.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Classe des acides gras</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sous-classe des hydrocarbures gras</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hydrocarbures gras sont des acides gras dont le groupement carboxyle -COOH a été perdu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Classe des acylglycérols</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">Les glycérides sont des esters d'acides gras et de glycérol. Il existe 3 sous-classes d'acylglycérols : les mono-, di- et acylglycérols. Les suffixes mono, di, et tri sont utilisés selon que l'estérification porte sur 1, 2 ou 3 groupements hydroxyles du glycérol. La formule semi développée des acylglycérols est :
 CH2-O-CO-R1
@@ -638,33 +1033,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Classe des phosphoacylglycérols</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les phosphoacylglycérols, encore appelé phosphoglycérides ou glycérophospholipides, sont les lipides les plus abondants dans les membranes biologiques. Ils ont naturellement tendance à s'organiser en double couche. Leur structure de base est formée d'un diglycéride et d'un phosphate[9]. Dans la plupart des cas, le phosphate est également lié à un composé polaire hydroxylé (ex. la choline, la sérine, l'éthanolamine). Un exemple bien connu de phosphoglycéride est la lécithine, souvent utilisée comme additif alimentaire. La formule semi développée des phosphoglycérides est :
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les phosphoacylglycérols, encore appelé phosphoglycérides ou glycérophospholipides, sont les lipides les plus abondants dans les membranes biologiques. Ils ont naturellement tendance à s'organiser en double couche. Leur structure de base est formée d'un diglycéride et d'un phosphate. Dans la plupart des cas, le phosphate est également lié à un composé polaire hydroxylé (ex. la choline, la sérine, l'éthanolamine). Un exemple bien connu de phosphoglycéride est la lécithine, souvent utilisée comme additif alimentaire. La formule semi développée des phosphoglycérides est :
         CH2-PO4−-X
         |
 R2-CO-O-CH
@@ -696,118 +1093,459 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Classe des stérols</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Les stérols sont des lipides dérivant du noyau cyclopentanophénanthrénique. Les différents types de stérols se distinguent selon le nombre et la position d'insaturation et/ou de chaînes latérales. 
-Sous-classe des stérols
-cholestérol et dérivés
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Classe des stérols</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Sous-classe des stérols</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>cholestérol et dérivés
 cholestéryl esters
 phytostérols et dérivés
 stérols marins et dérivés
-stérols fongiques et dérivés
-Sous-classe des stéroïdes
-stéroïde à 18 carbones (œstrogènes) et dérivés
+stérols fongiques et dérivés</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Classe des stérols</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sous-classe des stéroïdes</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>stéroïde à 18 carbones (œstrogènes) et dérivés
 stéroïde à 19 carbones (androgènes) et dérivés
-stéroïde à 21 carbones (gluco et minéralocorticoïdes, progestogines) et dérivés
-Sous-classe des secostéroïdes
-vitamine D2 et dérivés
+stéroïde à 21 carbones (gluco et minéralocorticoïdes, progestogines) et dérivés</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Classe des stérols</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sous-classe des secostéroïdes</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>vitamine D2 et dérivés
 vitamine D3 et dérivés
 vitamine D4 et dérivés
 vitamine D5 et dérivés
 vitamine D6 et dérivés
-vitamine D7 et dérivés
-Sous-classe des acides biliaires et dérivés
-acide biliaire à 22 carbones, alcools et dérivés
+vitamine D7 et dérivés</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Classe des stérols</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sous-classe des acides biliaires et dérivés</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>acide biliaire à 22 carbones, alcools et dérivés
 acide biliaire à 23 carbones, alcools et dérivés
 acide biliaire à 24 carbones, alcools et dérivés
 acide biliaire à 25 carbones, alcools et dérivés
 acide biliaire à 26 carbones, alcools et dérivés
 acide biliaire à 27 carbones, alcools et dérivés
 acide biliaire à 28 carbones, alcools et dérivés
-acide biliaire à 29 carbones, alcools et dérivés
-Sous-classe des stéroïdes conjugués
-stéroïdes glucuronidés
+acide biliaire à 29 carbones, alcools et dérivés</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Classe des stérols</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sous-classe des stéroïdes conjugués</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>stéroïdes glucuronidés
 stéroïdes sulfatés
 stéroïdes conjugués à la glycine
-stéroïdes conjugués à la taurine
-Sous-classe des hopanoïdes
+stéroïdes conjugués à la taurine</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Classe des stérols</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sous-classe des hopanoïdes</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Classe des sphingolipides</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sphingolipides sont dérivés des sphinganines ou des sphing-4-ènines, plus connues sous le nom de sphingosines. Ces 2 derniers composés dérivent eux-mêmes de la condensation d'un acide gras et de la sérine. La sous-classe la plus importante est sans doute celle des céramides. Il s'agit de sphinganines ou de sphingosines liées à un acide gras par une liaison amide. Un exemple bien connu de céramide est la sphingomyéline, impliquée dans la transmission nerveuse chez les mammifères.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Classe des sphingolipides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Les sphingolipides sont dérivés des sphinganines ou des sphing-4-ènines, plus connues sous le nom de sphingosines. Ces 2 derniers composés dérivent eux-mêmes de la condensation d'un acide gras et de la sérine. La sous-classe la plus importante est sans doute celle des céramides. Il s'agit de sphinganines ou de sphingosines liées à un acide gras par une liaison amide. Un exemple bien connu de céramide est la sphingomyéline, impliquée dans la transmission nerveuse chez les mammifères.
-Sous-classe des sphingoïdes
-Sphing-4-ènines (sphingosines)
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Sous-classe des sphingoïdes</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sphing-4-ènines (sphingosines)
 Sphinganines
 4-Hydroxysphinganines (phytosphingosines)
 Holomogues des sphingoïdes
 Sphingoïde 1-phosphate
 Lysosphingomyélines and lysoglycosphingolipides
 Sphingoïdes N-méthylatés
-Analogues aux sphingoïdes
-Sous-classe des céramides
-N-acylsphingosines (céramides)
+Analogues aux sphingoïdes</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Classe des sphingolipides</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sous-classe des céramides</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N-acylsphingosines (céramides)
 N-acylsphinganines (dihydroceramides)
 N-acyl-4-hydroxysphinganines (phytoceramides)
 Acylcéramides
-Céramides 1-phosphate
-Sous-classe des phosphosphingolipides
-Céramides phosphocholine (sphingomyélines)
+Céramides 1-phosphate</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Classe des sphingolipides</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sous-classe des phosphosphingolipides</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Céramides phosphocholine (sphingomyélines)
 Céramides phosphoéthanolamine
-Céramides phosphoinositol
-Sous-classe des phosphonosphingolipides
-Sous-classe des glycosphingolipides neutres
-série des sucres simples (Glucocéramide, Lactocéramide, etc)
+Céramides phosphoinositol</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Classe des sphingolipides</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sous-classe des glycosphingolipides neutres</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>série des sucres simples (Glucocéramide, Lactocéramide, etc)
 GalNAcb1-3Gala1-4Galb1-4Glc- (série des Globo)
 GalNAcb1-4Galb1-4Glc- (série des Ganglio)
 Galb1-3GlcNAcb1-3Galb1-4Glc- (série des Lacto)
@@ -816,44 +1554,77 @@
 GlcNAcb1-2Mana1-3Manb1-4Glc- (série des Mollu)
 GalNAcb1-4GlcNAcb1-3Manb1-4Glc- (série des Arthro)
 Gal- (série des Galacto)
-Autres
-Sous-classe des glycosphingolipides acides
-Gangliosides
+Autres</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Classe des sphingolipides</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Sous-classe des glycosphingolipides acides</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Gangliosides
 Sulfoglycosphingolipides (sulfatides)
 Glucuronosphingolipides
 Phosphoglycosphingolipides
-Autres
-Sous-classe des glycosphingolipides basiques
-Sous-classe des glycosphingolipides amphotères
-Sous-classe des arsenosphingolipides</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Autres</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Classe des polykétides</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Les polykétides proviennent de la condensation de groupe acétyl et/ou propionyl. Ils forment une gamme très vaste de composés naturels dont sont dérivés de nombreux antibiotiques (ex. les macrolides). Les polykétides peuvent se répartir en 3 sous-classes :
 les macrolides
@@ -862,48 +1633,153 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Classe des prénols</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>La structure de base des prénols est l'isoprène. Les prénols sont synthétisés à partir de précurseurs à 5 atomes de carbone, l'isopentényl diphosphate et le diméthylally diphosphate, issus de la voie du mévalonate. Chez quelques bactéries et plantes, les précurseurs sont issus de la voie du méthylérythritol phosphate. 
-Sous-classe des isoprénoïdes
-Isoprénoïdes à 5 carbones
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La structure de base des prénols est l'isoprène. Les prénols sont synthétisés à partir de précurseurs à 5 atomes de carbone, l'isopentényl diphosphate et le diméthylally diphosphate, issus de la voie du mévalonate. Chez quelques bactéries et plantes, les précurseurs sont issus de la voie du méthylérythritol phosphate. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Classe des prénols</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sous-classe des isoprénoïdes</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Isoprénoïdes à 5 carbones
 Isoprénoïdes à 10 carbones (monoterpènes)
 Isoprénoïdes à 15 carbones (sesquiterpènes)
 Isoprénoïdes à 20 carbones (diterpènes)
 Isoprénoïdes à 25 carbones (sesterterpènes)
 Isoprénoïdes à 30 carbones (triterpènes)
 Isoprénoïdes à 40 carbones (tétraterpènes)
-Polytèrpènes (plus de 40 carbones)
-Sous-classe des quinones et hydroquinones
-ubiquinones
+Polytèrpènes (plus de 40 carbones)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Classe des prénols</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sous-classe des quinones et hydroquinones</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ubiquinones
 vitamine E
-vitamine K
-Sous-classe des polyprénols
-Bactoprénols
+vitamine K</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Classe des prénols</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sous-classe des polyprénols</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bactoprénols
 Bactoprénol monophosphates
 Bactoprénol diphosphates
 Phytoprénols
@@ -915,44 +1791,78 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Classe des saccharolipides</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Les saccharolipides résultent de l'estérification ou de l'amidification d'acide gras par des sucres ou des sucres aminés.
-Acylaminosucres
-monoacylaminosucres
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les saccharolipides résultent de l'estérification ou de l'amidification d'acide gras par des sucres ou des sucres aminés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_lipides</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Classe des saccharolipides</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Acylaminosucres</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>monoacylaminosucres
 diacylaminosucre
 triacylaminosucre
 tetraacylaminosucre
 pentaacylaminosucre
 hexaacylaminosucre
-heptaacylaminosucre
-Polysaccharides d'acylaminosucres
-Acyltréhaloses
-Polysaccharides d'acyltréhaloses</t>
+heptaacylaminosucre</t>
         </is>
       </c>
     </row>
